--- a/data/trans_dic/P2405-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2405-Estudios-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2405-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2405-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,69%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,47%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1,24%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0,18%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,7%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>0,26; 1,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>0,18; 1,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>0,55; 2,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>0,0; 0,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,03</t>
+          <t>0; 0,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,07</t>
+          <t>0,09; 0,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,18; 0,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0,07; 0,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0,36; 1,23</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,34%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1,15%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0,71%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,09%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,41%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>0,12; 0,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>0,77; 1,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0,4; 1,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0; 0,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,06; 0,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0,0; 0,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>0,06; 0,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>0,44; 1,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0,24; 0,66</t>
         </is>
       </c>
     </row>
@@ -852,42 +852,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,34%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,6%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0,55%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0,2%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,03</t>
+          <t>0,0; 1,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>0,0; 2,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>0; 0,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,43</t>
+          <t>0,0; 2,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,51</t>
+          <t>0,0; 1,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>0; 0,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>0,1; 1,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>0,1; 1,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>0; 0,19</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,42%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>0,26; 0,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>0,61; 1,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>0,46; 1,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>0,04; 0,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0,03; 0,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>0,05; 0,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>0,18; 0,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>0,34; 0,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>0,28; 0,59</t>
         </is>
       </c>
     </row>
